--- a/Notas/Experiencia.xlsx
+++ b/Notas/Experiencia.xlsx
@@ -540,7 +540,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>

--- a/Notas/Experiencia.xlsx
+++ b/Notas/Experiencia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -293,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
